--- a/docs/data/HPS201_formulae.xlsx
+++ b/docs/data/HPS201_formulae.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malford/Documents/BPsychSci/HPS201/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA624B4A-E470-7B47-A9C3-68E513366019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41A0855-F333-634E-8741-6422956659F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="7" xr2:uid="{2AF85692-95A5-E941-BE53-7A1222EBB25A}"/>
   </bookViews>
@@ -256,6 +256,21 @@
         </r>
       </text>
     </comment>
+    <comment ref="E13" authorId="0" shapeId="0" xr:uid="{C737ADAF-4E57-8F46-A889-2473CEBE88CC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>MS(treat) / MS(error)</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B14" authorId="0" shapeId="0" xr:uid="{D1A17BB7-26B4-CD41-84C0-398552768141}">
       <text>
         <r>
@@ -304,169 +319,6 @@
       </text>
     </comment>
     <comment ref="B15" authorId="0" shapeId="0" xr:uid="{96F4AD73-797D-5740-B98C-532193933BD5}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">df(treat) + df(error)
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">OR
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">N - 1
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>N = total observations across all groups</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B22" authorId="0" shapeId="0" xr:uid="{58A7289B-050D-E44E-9046-3662866E14A0}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">k-1
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t># of groups - 1</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B23" authorId="0" shapeId="0" xr:uid="{C96FD32D-BD29-884E-B60D-634F8D9ADAB9}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">k(n-1)
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">k = # of grps/levels in IV
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>n = # of observations in each group</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B24" authorId="0" shapeId="0" xr:uid="{722FBCE1-6A5B-174E-9F0D-252AE1FF53F6}">
       <text>
         <r>
           <rPr>
@@ -556,6 +408,62 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{A19FF818-A85A-DC47-AAE2-A2A447E9EF67}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Used to calculate SSA, SSB and SScells</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{19FF48AF-D897-C548-B84F-A8E14D275CD1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t># of participants in each cell</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{68161480-76F3-F543-BD43-80B78EDBF9DA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t># of levels in factor a</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{3D15D51F-A68B-4D49-91C7-C4327A817FDC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t># of levels in factor B</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="C6" authorId="0" shapeId="0" xr:uid="{B9305437-0D23-624D-9698-8064588CBBC0}">
       <text>
         <r>
@@ -699,6 +607,474 @@
             <family val="2"/>
           </rPr>
           <t>Grand Mean (X..)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{BBED08D8-F0B8-8243-A1BD-E6AF939B9580}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>sum of each individual - grand mean squared</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{183A5732-9002-D341-BAD4-31C68D7E0AC2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>n * b * Sum of (A factor means - grand mean) squared</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{D2E8A66E-C5EF-884C-B3C7-9DC831B13597}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>n * a * Sum of (B factor mean - grand mean) squared</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{E742F6FF-B637-9644-A43C-7FB3A6228CED}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>n * sum of (cell means - grand mean)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B17" authorId="0" shapeId="0" xr:uid="{1CFF7D80-D6DA-ED46-844B-28A3B695CE11}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>SScells - SSA - SSB</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B18" authorId="0" shapeId="0" xr:uid="{EA8421E5-6023-B94E-9B2A-4831A888D39D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>SStotal - SScells</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C22" authorId="0" shapeId="0" xr:uid="{AFD3D10A-8E71-1D4F-94CE-E54F1FA3AA48}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>df(a) = a-1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G22" authorId="0" shapeId="0" xr:uid="{D9A62193-589A-3941-8CEB-503683F84123}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Confidence limit of 95% or alpha = 5%</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C23" authorId="0" shapeId="0" xr:uid="{33735A85-3C50-BA47-A12B-EB223CD64E62}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>df(b) = b-1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C24" authorId="0" shapeId="0" xr:uid="{C1070106-554D-D449-B5FD-06A5B9F174A3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>df(a) x df(b)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C25" authorId="0" shapeId="0" xr:uid="{B01F51E2-AC5B-EF4C-9DBE-8AA780D1C154}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Cambria Math"/>
+            <family val="1"/>
+          </rPr>
+          <t>𝑑</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Cambria Math"/>
+            <family val="1"/>
+          </rPr>
+          <t>𝑓</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Cambria Math"/>
+            <family val="1"/>
+          </rPr>
+          <t>𝑒</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Cambria Math"/>
+            <family val="1"/>
+          </rPr>
+          <t>𝑟</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Cambria Math"/>
+            <family val="1"/>
+          </rPr>
+          <t>𝑟</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Cambria Math"/>
+            <family val="1"/>
+          </rPr>
+          <t>𝑜</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Cambria Math"/>
+            <family val="1"/>
+          </rPr>
+          <t>𝑟</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> = </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Cambria Math"/>
+            <family val="1"/>
+          </rPr>
+          <t>𝑑</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Cambria Math"/>
+            <family val="1"/>
+          </rPr>
+          <t>𝑓</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Cambria Math"/>
+            <family val="1"/>
+          </rPr>
+          <t>𝑇</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Cambria Math"/>
+            <family val="1"/>
+          </rPr>
+          <t>𝑜</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Cambria Math"/>
+            <family val="1"/>
+          </rPr>
+          <t>𝑡</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Cambria Math"/>
+            <family val="1"/>
+          </rPr>
+          <t>𝑎</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Cambria Math"/>
+            <family val="1"/>
+          </rPr>
+          <t>𝑙</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> – </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Cambria Math"/>
+            <family val="1"/>
+          </rPr>
+          <t>𝑑</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Cambria Math"/>
+            <family val="1"/>
+          </rPr>
+          <t>𝑓</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Cambria Math"/>
+            <family val="1"/>
+          </rPr>
+          <t>𝐴</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> – </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Cambria Math"/>
+            <family val="1"/>
+          </rPr>
+          <t>𝑑</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Cambria Math"/>
+            <family val="1"/>
+          </rPr>
+          <t>𝑓</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Cambria Math"/>
+            <family val="1"/>
+          </rPr>
+          <t>𝐵</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> – </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Cambria Math"/>
+            <family val="1"/>
+          </rPr>
+          <t>𝑑</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Cambria Math"/>
+            <family val="1"/>
+          </rPr>
+          <t>𝑓</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Cambria Math"/>
+            <family val="1"/>
+          </rPr>
+          <t>𝐴</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C26" authorId="0" shapeId="0" xr:uid="{CA286051-F1C8-AC4F-8D7D-84FA31E6FF3C}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Cambria Math"/>
+            <family val="1"/>
+          </rPr>
+          <t>𝑑</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Cambria Math"/>
+            <family val="1"/>
+          </rPr>
+          <t>𝑓</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Cambria Math"/>
+            <family val="1"/>
+          </rPr>
+          <t>𝑇</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Cambria Math"/>
+            <family val="1"/>
+          </rPr>
+          <t>𝑜</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Cambria Math"/>
+            <family val="1"/>
+          </rPr>
+          <t>𝑡</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Cambria Math"/>
+            <family val="1"/>
+          </rPr>
+          <t>𝑎</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Cambria Math"/>
+            <family val="1"/>
+          </rPr>
+          <t>𝑙</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> = N - 1</t>
         </r>
       </text>
     </comment>
@@ -707,7 +1083,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="62">
   <si>
     <t>Mean</t>
   </si>
@@ -822,9 +1198,6 @@
   </si>
   <si>
     <t>Std Deviation</t>
-  </si>
-  <si>
-    <t>Summary Table (manual calculation)</t>
   </si>
   <si>
     <t>Low</t>
@@ -901,15 +1274,6 @@
     </r>
   </si>
   <si>
-    <t>Gender (B)</t>
-  </si>
-  <si>
-    <t>Stress (A)</t>
-  </si>
-  <si>
-    <t>&lt;- X..</t>
-  </si>
-  <si>
     <t>SS total</t>
   </si>
   <si>
@@ -926,6 +1290,36 @@
   </si>
   <si>
     <t>SS error</t>
+  </si>
+  <si>
+    <t>A (gender)</t>
+  </si>
+  <si>
+    <t>B (anxiety)</t>
+  </si>
+  <si>
+    <t>AB (interaction)</t>
+  </si>
+  <si>
+    <t>Gender (A)</t>
+  </si>
+  <si>
+    <t>Stress (B)</t>
+  </si>
+  <si>
+    <t>Summary Table (2 x 2 factorial design)</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Multipliers</t>
   </si>
 </sst>
 </file>
@@ -936,7 +1330,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1048,6 +1442,48 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria Math"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1217,7 +1653,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1304,6 +1740,12 @@
     <xf numFmtId="2" fontId="13" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1322,26 +1764,48 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2068,14 +2532,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="42" t="s">
+      <c r="C1" s="43"/>
+      <c r="D1" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="41"/>
+      <c r="E1" s="43"/>
       <c r="F1" s="1" t="s">
         <v>19</v>
       </c>
@@ -2393,14 +2857,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="42" t="s">
+      <c r="C1" s="43"/>
+      <c r="D1" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="41"/>
+      <c r="E1" s="43"/>
       <c r="F1" s="1" t="s">
         <v>19</v>
       </c>
@@ -2721,10 +3185,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E610017A-C1D7-3D4C-9A9C-81D4A7797E5F}">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2746,11 +3210,11 @@
       <c r="D1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
     </row>
     <row r="2" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -2913,12 +3377,12 @@
       <c r="A8" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="43">
+      <c r="B8" s="45">
         <f>AVERAGE(B7:D7)</f>
         <v>5.7333333333333334</v>
       </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
       <c r="F8" s="12" t="s">
         <v>15</v>
       </c>
@@ -2953,13 +3417,13 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
@@ -3039,7 +3503,7 @@
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
     </row>
-    <row r="17" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>16</v>
       </c>
@@ -3048,103 +3512,26 @@
         <v>0.47667910447761186</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B18" s="3"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22">
-        <v>2</v>
-      </c>
-      <c r="C22" s="29">
-        <f>5*((B16-B17)^2 + (C16-B17)^2 + (D16-B17)^2)</f>
-        <v>3.4083445296836699</v>
-      </c>
-      <c r="D22" s="29">
-        <f>C22/B22</f>
-        <v>1.7041722648418349</v>
-      </c>
-      <c r="E22" s="29" t="e">
-        <f>D22/D23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23">
-        <v>12</v>
-      </c>
-      <c r="C23" s="29">
-        <f>G17+H17+I17</f>
-        <v>0</v>
-      </c>
-      <c r="D23" s="29">
-        <f>C23/B23</f>
-        <v>0</v>
-      </c>
-      <c r="E23" s="29"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24">
-        <v>14</v>
-      </c>
-      <c r="C24" s="29">
-        <f>C22+C23</f>
-        <v>3.4083445296836699</v>
-      </c>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="53"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="G1:I1"/>
-    <mergeCell ref="A20:E20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -3165,10 +3552,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE1BAE1-27F0-0543-B2B7-C5F930B1AFB0}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3177,32 +3564,41 @@
     <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="48"/>
-    </row>
-    <row r="2" spans="1:6" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="I1" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="55"/>
+    </row>
+    <row r="2" spans="1:10" ht="20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="30"/>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="E2" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="50" t="s">
         <v>40</v>
-      </c>
-      <c r="E2" s="47" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="50" t="s">
-        <v>41</v>
       </c>
       <c r="C3" s="32">
         <v>74</v>
@@ -3211,10 +3607,16 @@
         <v>72</v>
       </c>
       <c r="E3" s="32"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="52"/>
-      <c r="B4" s="49"/>
+      <c r="I3" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="48"/>
+      <c r="B4" s="51"/>
       <c r="C4" s="32">
         <v>78</v>
       </c>
@@ -3222,10 +3624,16 @@
         <v>70</v>
       </c>
       <c r="E4" s="32"/>
-    </row>
-    <row r="5" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="52"/>
-      <c r="B5" s="51"/>
+      <c r="I4" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="48"/>
+      <c r="B5" s="52"/>
       <c r="C5" s="31">
         <v>71</v>
       </c>
@@ -3234,10 +3642,10 @@
       </c>
       <c r="E5" s="31"/>
     </row>
-    <row r="6" spans="1:6" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="52"/>
+    <row r="6" spans="1:10" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="48"/>
       <c r="B6" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" s="39">
         <f>AVERAGE(C3:C5)</f>
@@ -3248,14 +3656,14 @@
         <v>72</v>
       </c>
       <c r="E6" s="35">
-        <f>(C3+C4+C5+D3+D4+D5)/6</f>
+        <f>AVERAGE(C3:D5)</f>
         <v>73.166666666666671</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="52"/>
+    <row r="7" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="48"/>
       <c r="B7" s="50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" s="32">
         <v>77</v>
@@ -3265,9 +3673,9 @@
       </c>
       <c r="E7" s="32"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="52"/>
-      <c r="B8" s="49"/>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="48"/>
+      <c r="B8" s="51"/>
       <c r="C8" s="32">
         <v>84</v>
       </c>
@@ -3276,9 +3684,9 @@
       </c>
       <c r="E8" s="32"/>
     </row>
-    <row r="9" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="52"/>
-      <c r="B9" s="51"/>
+    <row r="9" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="48"/>
+      <c r="B9" s="52"/>
       <c r="C9" s="31">
         <v>82</v>
       </c>
@@ -3287,10 +3695,10 @@
       </c>
       <c r="E9" s="31"/>
     </row>
-    <row r="10" spans="1:6" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="52"/>
+    <row r="10" spans="1:10" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="48"/>
       <c r="B10" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="39">
         <f>AVERAGE(C7:C9)</f>
@@ -3301,14 +3709,14 @@
         <v>67.666666666666671</v>
       </c>
       <c r="E10" s="35">
-        <f>(C7+C8+C9+D7+D8+D9)/6</f>
+        <f>AVERAGE(C7:D9)</f>
         <v>74.333333333333329</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="52"/>
+    <row r="11" spans="1:10" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="48"/>
       <c r="B11" s="30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" s="38">
         <f>(C3+C4+C5+C7+C8+C9)/6</f>
@@ -3322,70 +3730,182 @@
         <f>(SUM(C3:D5) + SUM(C7:D9) )/12</f>
         <v>73.75</v>
       </c>
-      <c r="F11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C13" s="34">
         <f>(C3-E11)^2 + (C4-E11)^2 + (C5-E11)^2 + (D3-E11)^2 + (D4-E11)^2 + (D5-E11)^2 + (C7-E11)^2+(C8-E11)^2+(C9-E11)^2+(D7-E11)^2+(D8-E11)^2+(D9-E11)^2</f>
         <v>362.25</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="36" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C14" s="34">
-        <f>3 * 2 * ((E6-E11)^2 + (E10-E11)^2)</f>
+        <f>J2 * J4 * ((E6-E11)^2 + (E10-E11)^2)</f>
         <v>4.0833333333332664</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="37" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C15" s="34">
-        <f>3 * 2 * (((C11-E11)^2) +( (D11-E11)^2))</f>
+        <f>J2 * J3 * (((C11-E11)^2) +( (D11-E11)^2))</f>
         <v>184.08333333333377</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" s="25" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C16" s="34">
-        <f>3 * ((C6-E11)^2 + (D6-E11)^2 + (C10 - E11)^2 + (D10-E11)^2)</f>
+        <f>J2 * ((C6-E11)^2 + (D6-E11)^2 + (C10 - E11)^2 + (D10-E11)^2)</f>
         <v>278.91666666666646</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C17" s="34">
         <f>C16-C14-C15</f>
         <v>90.749999999999432</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C18" s="34">
         <f>C13-C16</f>
         <v>83.333333333333542</v>
       </c>
     </row>
+    <row r="20" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+    </row>
+    <row r="21" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="57"/>
+      <c r="C21" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="58" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B22" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="61">
+        <v>1</v>
+      </c>
+      <c r="D22" s="61">
+        <v>0.34</v>
+      </c>
+      <c r="E22" s="61">
+        <v>0.34</v>
+      </c>
+      <c r="F22" s="61">
+        <v>0.34</v>
+      </c>
+      <c r="G22" s="61" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B23" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="61">
+        <v>1</v>
+      </c>
+      <c r="D23" s="61">
+        <v>12</v>
+      </c>
+      <c r="E23" s="61">
+        <v>12</v>
+      </c>
+      <c r="F23" s="61">
+        <v>12</v>
+      </c>
+      <c r="G23" s="61"/>
+    </row>
+    <row r="24" spans="2:7" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="63">
+        <v>1</v>
+      </c>
+      <c r="D24" s="63">
+        <v>16.3</v>
+      </c>
+      <c r="E24" s="63">
+        <v>16.3</v>
+      </c>
+      <c r="F24" s="63">
+        <v>16.3</v>
+      </c>
+      <c r="G24" s="63"/>
+    </row>
+    <row r="25" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="63">
+        <v>8</v>
+      </c>
+      <c r="D25" s="63">
+        <v>8</v>
+      </c>
+      <c r="E25" s="63">
+        <v>1</v>
+      </c>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
+    </row>
+    <row r="26" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="63">
+        <v>11</v>
+      </c>
+      <c r="D26" s="63">
+        <v>36.6</v>
+      </c>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A3:A11"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B7:B9"/>
+    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/docs/data/HPS201_formulae.xlsx
+++ b/docs/data/HPS201_formulae.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malford/Documents/BPsychSci/HPS201/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41A0855-F333-634E-8741-6422956659F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50B106F-7789-0A45-9FC7-02E3DD80C44A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="7" xr2:uid="{2AF85692-95A5-E941-BE53-7A1222EBB25A}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{2AF85692-95A5-E941-BE53-7A1222EBB25A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Week 3 - Hypothesis Testing" sheetId="8" r:id="rId1"/>
-    <sheet name="Week 4 - Chi Square" sheetId="7" r:id="rId2"/>
-    <sheet name="Week 5 - t-tests" sheetId="4" r:id="rId3"/>
-    <sheet name="Week 6 - Correlation" sheetId="3" r:id="rId4"/>
-    <sheet name="Week 7 - Regression" sheetId="2" r:id="rId5"/>
-    <sheet name="Week 8 - ANOVA" sheetId="1" r:id="rId6"/>
-    <sheet name="Week 9 - Post-hoc tests" sheetId="5" r:id="rId7"/>
-    <sheet name="Week 10 - Factorial ANOVA" sheetId="6" r:id="rId8"/>
+    <sheet name="Week 2 - CT, V, z" sheetId="9" r:id="rId1"/>
+    <sheet name="Week 3 - Hypothesis Testing" sheetId="8" r:id="rId2"/>
+    <sheet name="Week 4 - Chi Square" sheetId="7" r:id="rId3"/>
+    <sheet name="Week 5 - t-tests" sheetId="4" r:id="rId4"/>
+    <sheet name="Week 6 - Correlation" sheetId="3" r:id="rId5"/>
+    <sheet name="Week 7 - Regression" sheetId="2" r:id="rId6"/>
+    <sheet name="Week 8 - ANOVA" sheetId="1" r:id="rId7"/>
+    <sheet name="Week 9 - Post-hoc tests" sheetId="5" r:id="rId8"/>
+    <sheet name="Week 10 - Factorial ANOVA" sheetId="6" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1083,7 +1084,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="65">
   <si>
     <t>Mean</t>
   </si>
@@ -1320,6 +1321,15 @@
   </si>
   <si>
     <t>Multipliers</t>
+  </si>
+  <si>
+    <t>Variability</t>
+  </si>
+  <si>
+    <t>X - X{bar}</t>
+  </si>
+  <si>
+    <t>| X - X{bar} |</t>
   </si>
 </sst>
 </file>
@@ -1653,7 +1663,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1746,43 +1756,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1807,6 +1780,42 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2479,6 +2488,107 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6C961D5-14AF-F346-BBDF-EA8F52D86FB4}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>27</v>
+      </c>
+      <c r="B3">
+        <f>A3-$A$7</f>
+        <v>-28.5</v>
+      </c>
+      <c r="C3">
+        <f>ABS(B3)</f>
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>105</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ref="B4:C6" si="0">A4-$A$7</f>
+        <v>49.5</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C7" si="1">ABS(B4)</f>
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>-45.5</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>45.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>80</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>24.5</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <f>AVERAGE(A3:A6)</f>
+        <v>55.5</v>
+      </c>
+      <c r="B7">
+        <f>SUM(B3:B6)</f>
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <f>SUM(C3:C6)</f>
+        <v>148</v>
+      </c>
+      <c r="D7">
+        <f>C7/4</f>
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{713BBF7A-C310-0E4C-9449-1E7715976F24}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2490,7 +2600,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D1F4E91-F7BE-EA4A-BA15-FFA144F35783}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2504,7 +2614,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{212CB8C0-A6AB-B84E-B178-60A8165744B3}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2516,7 +2626,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCD8F183-FC5C-0442-BE92-A8D3A9E752CD}">
   <dimension ref="A1:G20"/>
   <sheetViews>
@@ -2532,14 +2642,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="44" t="s">
+      <c r="C1" s="52"/>
+      <c r="D1" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="43"/>
+      <c r="E1" s="52"/>
       <c r="F1" s="1" t="s">
         <v>19</v>
       </c>
@@ -2841,7 +2951,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD72AF10-F582-F244-9FFE-1C6E488D6868}">
   <dimension ref="A1:G24"/>
   <sheetViews>
@@ -2857,14 +2967,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="44" t="s">
+      <c r="C1" s="52"/>
+      <c r="D1" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="43"/>
+      <c r="E1" s="52"/>
       <c r="F1" s="1" t="s">
         <v>19</v>
       </c>
@@ -3183,7 +3293,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E610017A-C1D7-3D4C-9A9C-81D4A7797E5F}">
   <dimension ref="A1:I29"/>
   <sheetViews>
@@ -3210,11 +3320,11 @@
       <c r="D1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="G1" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
     </row>
     <row r="2" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -3377,12 +3487,12 @@
       <c r="A8" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="45">
+      <c r="B8" s="54">
         <f>AVERAGE(B7:D7)</f>
         <v>5.7333333333333334</v>
       </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
       <c r="F8" s="12" t="s">
         <v>15</v>
       </c>
@@ -3417,13 +3527,13 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
@@ -3516,11 +3626,11 @@
       <c r="B18" s="3"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="53"/>
-      <c r="B20" s="53"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B29" s="3"/>
@@ -3538,7 +3648,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E396805E-AB0B-F44E-9F57-9A296D68802F}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3550,11 +3660,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE1BAE1-27F0-0543-B2B7-C5F930B1AFB0}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
@@ -3565,15 +3675,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="I1" s="55" t="s">
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="I1" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="55"/>
+      <c r="J1" s="62"/>
     </row>
     <row r="2" spans="1:10" ht="20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="30"/>
@@ -3586,7 +3696,7 @@
       <c r="E2" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="54" t="s">
+      <c r="I2" s="42" t="s">
         <v>58</v>
       </c>
       <c r="J2">
@@ -3594,10 +3704,10 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="59" t="s">
         <v>40</v>
       </c>
       <c r="C3" s="32">
@@ -3607,7 +3717,7 @@
         <v>72</v>
       </c>
       <c r="E3" s="32"/>
-      <c r="I3" s="54" t="s">
+      <c r="I3" s="42" t="s">
         <v>59</v>
       </c>
       <c r="J3">
@@ -3615,8 +3725,8 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="48"/>
-      <c r="B4" s="51"/>
+      <c r="A4" s="57"/>
+      <c r="B4" s="60"/>
       <c r="C4" s="32">
         <v>78</v>
       </c>
@@ -3624,7 +3734,7 @@
         <v>70</v>
       </c>
       <c r="E4" s="32"/>
-      <c r="I4" s="54" t="s">
+      <c r="I4" s="42" t="s">
         <v>60</v>
       </c>
       <c r="J4">
@@ -3632,8 +3742,8 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="48"/>
-      <c r="B5" s="52"/>
+      <c r="A5" s="57"/>
+      <c r="B5" s="61"/>
       <c r="C5" s="31">
         <v>71</v>
       </c>
@@ -3643,7 +3753,7 @@
       <c r="E5" s="31"/>
     </row>
     <row r="6" spans="1:10" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="48"/>
+      <c r="A6" s="57"/>
       <c r="B6" s="30" t="s">
         <v>43</v>
       </c>
@@ -3661,8 +3771,8 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="48"/>
-      <c r="B7" s="50" t="s">
+      <c r="A7" s="57"/>
+      <c r="B7" s="59" t="s">
         <v>41</v>
       </c>
       <c r="C7" s="32">
@@ -3674,8 +3784,8 @@
       <c r="E7" s="32"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="48"/>
-      <c r="B8" s="51"/>
+      <c r="A8" s="57"/>
+      <c r="B8" s="60"/>
       <c r="C8" s="32">
         <v>84</v>
       </c>
@@ -3685,8 +3795,8 @@
       <c r="E8" s="32"/>
     </row>
     <row r="9" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="48"/>
-      <c r="B9" s="52"/>
+      <c r="A9" s="57"/>
+      <c r="B9" s="61"/>
       <c r="C9" s="31">
         <v>82</v>
       </c>
@@ -3696,7 +3806,7 @@
       <c r="E9" s="31"/>
     </row>
     <row r="10" spans="1:10" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="48"/>
+      <c r="A10" s="57"/>
       <c r="B10" s="30" t="s">
         <v>44</v>
       </c>
@@ -3714,7 +3824,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="48"/>
+      <c r="A11" s="57"/>
       <c r="B11" s="30" t="s">
         <v>45</v>
       </c>
@@ -3786,118 +3896,118 @@
       </c>
     </row>
     <row r="20" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="56" t="s">
+      <c r="B20" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
     </row>
     <row r="21" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="57"/>
-      <c r="C21" s="58" t="s">
+      <c r="B21" s="44"/>
+      <c r="C21" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="59" t="s">
+      <c r="D21" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="59" t="s">
+      <c r="E21" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="F21" s="58" t="s">
+      <c r="F21" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="G21" s="58" t="s">
+      <c r="G21" s="45" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B22" s="60" t="s">
+      <c r="B22" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="61">
+      <c r="C22" s="48">
         <v>1</v>
       </c>
-      <c r="D22" s="61">
+      <c r="D22" s="48">
         <v>0.34</v>
       </c>
-      <c r="E22" s="61">
+      <c r="E22" s="48">
         <v>0.34</v>
       </c>
-      <c r="F22" s="61">
+      <c r="F22" s="48">
         <v>0.34</v>
       </c>
-      <c r="G22" s="61" t="s">
+      <c r="G22" s="48" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B23" s="60" t="s">
+      <c r="B23" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="61">
+      <c r="C23" s="48">
         <v>1</v>
       </c>
-      <c r="D23" s="61">
+      <c r="D23" s="48">
         <v>12</v>
       </c>
-      <c r="E23" s="61">
+      <c r="E23" s="48">
         <v>12</v>
       </c>
-      <c r="F23" s="61">
+      <c r="F23" s="48">
         <v>12</v>
       </c>
-      <c r="G23" s="61"/>
+      <c r="G23" s="48"/>
     </row>
     <row r="24" spans="2:7" ht="31" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="62" t="s">
+      <c r="B24" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="63">
+      <c r="C24" s="50">
         <v>1</v>
       </c>
-      <c r="D24" s="63">
+      <c r="D24" s="50">
         <v>16.3</v>
       </c>
-      <c r="E24" s="63">
+      <c r="E24" s="50">
         <v>16.3</v>
       </c>
-      <c r="F24" s="63">
+      <c r="F24" s="50">
         <v>16.3</v>
       </c>
-      <c r="G24" s="63"/>
+      <c r="G24" s="50"/>
     </row>
     <row r="25" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="62" t="s">
+      <c r="B25" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="63">
+      <c r="C25" s="50">
         <v>8</v>
       </c>
-      <c r="D25" s="63">
+      <c r="D25" s="50">
         <v>8</v>
       </c>
-      <c r="E25" s="63">
+      <c r="E25" s="50">
         <v>1</v>
       </c>
-      <c r="F25" s="63"/>
-      <c r="G25" s="63"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
     </row>
     <row r="26" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="62" t="s">
+      <c r="B26" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="63">
+      <c r="C26" s="50">
         <v>11</v>
       </c>
-      <c r="D26" s="63">
+      <c r="D26" s="50">
         <v>36.6</v>
       </c>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="63"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/docs/data/HPS201_formulae.xlsx
+++ b/docs/data/HPS201_formulae.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malford/Documents/BPsychSci/HPS201/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50B106F-7789-0A45-9FC7-02E3DD80C44A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{999354C6-85E8-9540-B603-BD1EF3B75945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{2AF85692-95A5-E941-BE53-7A1222EBB25A}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="3" xr2:uid="{2AF85692-95A5-E941-BE53-7A1222EBB25A}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 2 - CT, V, z" sheetId="9" r:id="rId1"/>
@@ -1084,7 +1084,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="82">
   <si>
     <t>Mean</t>
   </si>
@@ -1331,6 +1331,57 @@
   <si>
     <t>| X - X{bar} |</t>
   </si>
+  <si>
+    <t>Goodness of Fit</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Anderson</t>
+  </si>
+  <si>
+    <t>Klatsky</t>
+  </si>
+  <si>
+    <t>Kamm</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>Observed</t>
+  </si>
+  <si>
+    <t>Expected</t>
+  </si>
+  <si>
+    <t>Test for Independence</t>
+  </si>
+  <si>
+    <t>Remedial English</t>
+  </si>
+  <si>
+    <t>Non Remedial English</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>ADD</t>
+  </si>
+  <si>
+    <t>Chi</t>
+  </si>
+  <si>
+    <t>Totals</t>
+  </si>
+  <si>
+    <t>This demonstration shows that the obtained value of x2 is exactly doubled, while the critical value remains the same.</t>
+  </si>
+  <si>
+    <t>Thus the sample size plays a very important role, with larger samples being more likely to produce significant results—as is also true with other tests.</t>
+  </si>
 </sst>
 </file>
 
@@ -1340,7 +1391,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1495,6 +1546,21 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1663,7 +1729,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1817,6 +1883,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2491,7 +2566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6C961D5-14AF-F346-BBDF-EA8F52D86FB4}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -2531,11 +2606,11 @@
         <v>105</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:C6" si="0">A4-$A$7</f>
+        <f t="shared" ref="B4:B6" si="0">A4-$A$7</f>
         <v>49.5</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C7" si="1">ABS(B4)</f>
+        <f t="shared" ref="C4:C6" si="1">ABS(B4)</f>
         <v>49.5</v>
       </c>
     </row>
@@ -2602,14 +2677,398 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D1F4E91-F7BE-EA4A-BA15-FFA144F35783}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="5" max="5" width="2.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3">
+        <v>32</v>
+      </c>
+      <c r="C3">
+        <v>25</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <f>SUM(B3:D3)</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="37">
+        <f>$F$3/3</f>
+        <v>22.333333333333332</v>
+      </c>
+      <c r="C4" s="37">
+        <f>$F$3/3</f>
+        <v>22.333333333333332</v>
+      </c>
+      <c r="D4" s="37">
+        <f>$F$3/3</f>
+        <v>22.333333333333332</v>
+      </c>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37">
+        <f>SUM(B4:D4)</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <f>(B3-B4)^2/B4</f>
+        <v>4.1840796019900512</v>
+      </c>
+      <c r="C5">
+        <f>(C3-C4)^2/C4</f>
+        <v>0.3184079601990053</v>
+      </c>
+      <c r="D5">
+        <f>(D3-D4)^2/D4</f>
+        <v>6.8109452736318401</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6">
+        <f>B5+C5+D5</f>
+        <v>11.313432835820898</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+    </row>
+    <row r="10" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A10" s="66"/>
+      <c r="B10" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="I10" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="J10" s="66" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="29">
+        <v>22</v>
+      </c>
+      <c r="C11" s="29">
+        <v>187</v>
+      </c>
+      <c r="D11" s="29">
+        <f>SUM(B11:C11)</f>
+        <v>209</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="26">
+        <f>B11*2</f>
+        <v>44</v>
+      </c>
+      <c r="I11" s="26">
+        <f>C11*2</f>
+        <v>374</v>
+      </c>
+      <c r="J11" s="26">
+        <f>SUM(H11:I11)</f>
+        <v>418</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="69">
+        <f>($D$11*B17)/$D$17</f>
+        <v>28.374172185430464</v>
+      </c>
+      <c r="C12" s="69">
+        <f>(D11*C17)/$D$17</f>
+        <v>180.62582781456953</v>
+      </c>
+      <c r="D12" s="67"/>
+      <c r="E12" s="64"/>
+      <c r="G12" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" s="69">
+        <f>(J11*H17)/$J$17</f>
+        <v>56.748344370860927</v>
+      </c>
+      <c r="I12" s="69">
+        <f>(J11*I17)/J17</f>
+        <v>361.25165562913907</v>
+      </c>
+      <c r="J12" s="67"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="67">
+        <f>(B11-B12)^2/B12</f>
+        <v>1.4319385525678192</v>
+      </c>
+      <c r="C13" s="67">
+        <f>(C11-C12)^2/C12</f>
+        <v>0.22494053890912125</v>
+      </c>
+      <c r="D13" s="67"/>
+      <c r="E13" s="64"/>
+      <c r="G13" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13" s="67">
+        <f>(H11-H12)^2/H12</f>
+        <v>2.8638771051356384</v>
+      </c>
+      <c r="I13" s="67">
+        <f>(I11-I12)^2/I12</f>
+        <v>0.44988107781824249</v>
+      </c>
+      <c r="J13" s="67"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="29">
+        <v>19</v>
+      </c>
+      <c r="C14" s="29">
+        <v>74</v>
+      </c>
+      <c r="D14" s="29">
+        <f>SUM(B14:C14)</f>
+        <v>93</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" s="26">
+        <f>B14*2</f>
+        <v>38</v>
+      </c>
+      <c r="I14" s="26">
+        <f>C14*2</f>
+        <v>148</v>
+      </c>
+      <c r="J14" s="26">
+        <f>SUM(H14:I14)</f>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="69">
+        <f>(D14*B17)/$D$17</f>
+        <v>12.625827814569536</v>
+      </c>
+      <c r="C15" s="69">
+        <f>(D14*C17)/$D$17</f>
+        <v>80.374172185430467</v>
+      </c>
+      <c r="D15" s="67"/>
+      <c r="E15" s="64"/>
+      <c r="G15" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" s="69">
+        <f>(J14*H17)/J17</f>
+        <v>25.251655629139073</v>
+      </c>
+      <c r="I15" s="69">
+        <f>(J14*I17)/J17</f>
+        <v>160.74834437086093</v>
+      </c>
+      <c r="J15" s="67"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="67">
+        <f>(B14-B15)^2/B15</f>
+        <v>3.2180124460932711</v>
+      </c>
+      <c r="C16" s="67">
+        <f>(C14-C15)^2/C15</f>
+        <v>0.50551153367748758</v>
+      </c>
+      <c r="D16" s="67"/>
+      <c r="E16" s="64"/>
+      <c r="G16" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="H16" s="67">
+        <f>(H14-H15)^2/H15</f>
+        <v>6.4360248921865422</v>
+      </c>
+      <c r="I16" s="67">
+        <f>(I14-I15)^2/I15</f>
+        <v>1.0110230673549752</v>
+      </c>
+      <c r="J16" s="67"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="64" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="29">
+        <f>B11+B14</f>
+        <v>41</v>
+      </c>
+      <c r="C17" s="29">
+        <f>C11+C14</f>
+        <v>261</v>
+      </c>
+      <c r="D17" s="29">
+        <f>D11+D14</f>
+        <v>302</v>
+      </c>
+      <c r="G17" s="64" t="s">
+        <v>79</v>
+      </c>
+      <c r="H17" s="29">
+        <f>H11+H14</f>
+        <v>82</v>
+      </c>
+      <c r="I17" s="29">
+        <f>I11+I14</f>
+        <v>522</v>
+      </c>
+      <c r="J17" s="29">
+        <f>J11+J14</f>
+        <v>604</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="29">
+        <f>B13+C13+B16+C16</f>
+        <v>5.3804030712476987</v>
+      </c>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="G18" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="H18" s="29">
+        <f>H13+I13+H16+I16</f>
+        <v>10.760806142495397</v>
+      </c>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="29">
+        <v>1</v>
+      </c>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="G19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H19" s="29">
+        <v>1</v>
+      </c>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="G9:J9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2618,7 +3077,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{212CB8C0-A6AB-B84E-B178-60A8165744B3}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
